--- a/data_month/zb/价格指数/分行业工业生产者出厂价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/分行业工业生产者出厂价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -648,138 +648,138 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D2" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="G2" t="n">
-        <v>101.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H2" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="S2" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="X2" t="n">
         <v>101</v>
       </c>
-      <c r="I2" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="N2" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Y2" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AP2" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="P2" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>100</v>
-      </c>
-      <c r="S2" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" t="n">
-        <v>100</v>
-      </c>
-      <c r="U2" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="V2" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>100.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -789,119 +789,119 @@
         <v>100.1</v>
       </c>
       <c r="D3" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>100.8</v>
+        <v>100.2</v>
       </c>
       <c r="G3" t="n">
-        <v>102.2</v>
+        <v>99.5</v>
       </c>
       <c r="H3" t="n">
-        <v>101.9</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="J3" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="K3" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>100.5</v>
+        <v>99.5</v>
       </c>
       <c r="M3" t="n">
-        <v>100.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>99.90000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1</v>
+        <v>98.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>99.59999999999999</v>
+        <v>100.4</v>
       </c>
       <c r="R3" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="T3" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="V3" t="n">
         <v>100</v>
       </c>
       <c r="W3" t="n">
-        <v>102.2</v>
+        <v>100</v>
       </c>
       <c r="X3" t="n">
-        <v>102.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="AA3" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.9</v>
+        <v>89</v>
       </c>
       <c r="AD3" t="n">
-        <v>100.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AE3" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AF3" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AG3" t="n">
         <v>100</v>
       </c>
       <c r="AH3" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="AI3" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="AJ3" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="AL3" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AM3" t="n">
-        <v>100.7</v>
+        <v>99.7</v>
       </c>
       <c r="AN3" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="AP3" t="n">
-        <v>101.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AQ3" t="n">
         <v>100</v>
@@ -910,273 +910,273 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="C4" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="D4" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>101</v>
+        <v>99.5</v>
       </c>
       <c r="G4" t="n">
-        <v>102.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>101.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="K4" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>101.1</v>
+        <v>99</v>
       </c>
       <c r="M4" t="n">
-        <v>102.2</v>
+        <v>96.2</v>
       </c>
       <c r="N4" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="O4" t="n">
-        <v>100.2</v>
+        <v>99</v>
       </c>
       <c r="P4" t="n">
-        <v>103.9</v>
+        <v>96.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>100.7</v>
+        <v>98.7</v>
       </c>
       <c r="R4" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>100.8</v>
+        <v>99.5</v>
       </c>
       <c r="T4" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="U4" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="V4" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="W4" t="n">
-        <v>103.5</v>
+        <v>100.3</v>
       </c>
       <c r="X4" t="n">
-        <v>104.1</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="Y4" t="n">
-        <v>100.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>100.6</v>
+        <v>99.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.3</v>
+        <v>92.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.9</v>
+        <v>83</v>
       </c>
       <c r="AD4" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="AG4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
       <c r="AI4" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="n">
-        <v>100.6</v>
+        <v>99.7</v>
       </c>
       <c r="AL4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AM4" t="n">
-        <v>100.4</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AN4" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AO4" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="AP4" t="n">
-        <v>103.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AQ4" t="n">
-        <v>103.3</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="D5" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>99.8</v>
       </c>
       <c r="G5" t="n">
+        <v>97</v>
+      </c>
+      <c r="H5" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="R5" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="I5" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-      <c r="K5" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="L5" t="n">
-        <v>100</v>
-      </c>
-      <c r="M5" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="S5" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="W5" t="n">
-        <v>99.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="X5" t="n">
-        <v>101</v>
+        <v>96.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AA5" t="n">
         <v>99.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.8</v>
+        <v>91</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.3</v>
+        <v>64.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="AF5" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="AG5" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>100.2</v>
+        <v>97.7</v>
       </c>
       <c r="AI5" t="n">
         <v>100</v>
       </c>
       <c r="AJ5" t="n">
-        <v>101.8</v>
+        <v>100.7</v>
       </c>
       <c r="AK5" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AL5" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="AM5" t="n">
-        <v>99.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AN5" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AO5" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AP5" t="n">
-        <v>99.40000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AQ5" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C6" t="n">
         <v>100.1</v>
@@ -1186,91 +1186,91 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>100.2</v>
+        <v>99.2</v>
       </c>
       <c r="G6" t="n">
-        <v>99.5</v>
+        <v>98.8</v>
       </c>
       <c r="H6" t="n">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="J6" t="n">
         <v>99.8</v>
       </c>
       <c r="K6" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="L6" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="M6" t="n">
+        <v>100</v>
+      </c>
+      <c r="N6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>101</v>
+      </c>
+      <c r="P6" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>100</v>
+      </c>
+      <c r="S6" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>100</v>
+      </c>
+      <c r="U6" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="V6" t="n">
+        <v>100</v>
+      </c>
+      <c r="W6" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="X6" t="n">
+        <v>99</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>96</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="AD6" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="N6" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="O6" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="S6" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="T6" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="U6" t="n">
-        <v>100</v>
-      </c>
-      <c r="V6" t="n">
-        <v>100</v>
-      </c>
-      <c r="W6" t="n">
-        <v>100</v>
-      </c>
-      <c r="X6" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>89</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="AE6" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AF6" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AI6" t="n">
         <v>100.1</v>
@@ -1279,742 +1279,742 @@
         <v>100</v>
       </c>
       <c r="AK6" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AL6" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="AM6" t="n">
         <v>99.7</v>
       </c>
       <c r="AN6" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="AP6" t="n">
-        <v>98.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="AQ6" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="C7" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="D7" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>99.5</v>
+        <v>100.4</v>
       </c>
       <c r="G7" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>100</v>
+      </c>
+      <c r="J7" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>100</v>
+      </c>
+      <c r="L7" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>100</v>
+      </c>
+      <c r="O7" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="P7" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>100</v>
+      </c>
+      <c r="U7" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="V7" t="n">
+        <v>100</v>
+      </c>
+      <c r="W7" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="X7" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="I7" t="n">
-        <v>100</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="L7" t="n">
-        <v>99</v>
-      </c>
-      <c r="M7" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="N7" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>99</v>
-      </c>
-      <c r="P7" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="S7" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="U7" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="V7" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="W7" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="X7" t="n">
-        <v>97.40000000000001</v>
-      </c>
       <c r="Y7" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>92.2</v>
+        <v>101.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>83</v>
+        <v>138.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="AF7" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="AG7" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>100.9</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AI7" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="AJ7" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>99.7</v>
+        <v>100.2</v>
       </c>
       <c r="AL7" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>99.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AN7" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="AO7" t="n">
         <v>100.1</v>
       </c>
       <c r="AP7" t="n">
-        <v>98.09999999999999</v>
+        <v>101.9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>100.4</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="G8" t="n">
-        <v>97</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>94.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>100.1</v>
       </c>
       <c r="L8" t="n">
-        <v>98.7</v>
+        <v>100.4</v>
       </c>
       <c r="M8" t="n">
-        <v>97.40000000000001</v>
+        <v>103.1</v>
       </c>
       <c r="N8" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="O8" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="P8" t="n">
-        <v>97.8</v>
+        <v>103.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>99.8</v>
+        <v>102.5</v>
       </c>
       <c r="R8" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="S8" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="T8" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="U8" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="V8" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="W8" t="n">
-        <v>97.7</v>
+        <v>100.6</v>
       </c>
       <c r="X8" t="n">
-        <v>96.2</v>
+        <v>100.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>98.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AA8" t="n">
         <v>99.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>91</v>
+        <v>103.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>64.3</v>
+        <v>112</v>
       </c>
       <c r="AD8" t="n">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AF8" t="n">
-        <v>100.3</v>
+        <v>99.7</v>
       </c>
       <c r="AG8" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AH8" t="n">
-        <v>97.7</v>
+        <v>100.8</v>
       </c>
       <c r="AI8" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="AK8" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="AL8" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AM8" t="n">
-        <v>98.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AN8" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AP8" t="n">
-        <v>98.40000000000001</v>
+        <v>101.1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>99.2</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>99.2</v>
+        <v>100.6</v>
       </c>
       <c r="G9" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H9" t="n">
         <v>98.8</v>
       </c>
-      <c r="H9" t="n">
-        <v>98.90000000000001</v>
-      </c>
       <c r="I9" t="n">
         <v>100</v>
       </c>
       <c r="J9" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="K9" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L9" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>103</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="T9" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>100</v>
+      </c>
+      <c r="W9" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="X9" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="AD9" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="M9" t="n">
-        <v>100</v>
-      </c>
-      <c r="N9" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>101</v>
-      </c>
-      <c r="P9" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>100</v>
-      </c>
-      <c r="S9" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="T9" t="n">
-        <v>100</v>
-      </c>
-      <c r="U9" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="V9" t="n">
-        <v>100</v>
-      </c>
-      <c r="W9" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="X9" t="n">
-        <v>99</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AE9" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AF9" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="Z9" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>96</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="AG9" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>98</v>
+        <v>100.4</v>
       </c>
       <c r="AI9" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="n">
         <v>100</v>
       </c>
       <c r="AK9" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="AL9" t="n">
         <v>100.1</v>
       </c>
       <c r="AM9" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AN9" t="n">
-        <v>100.6</v>
+        <v>99.7</v>
       </c>
       <c r="AO9" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AP9" t="n">
-        <v>100</v>
+        <v>101.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>100.1</v>
+        <v>104.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="D10" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="G10" t="n">
-        <v>100.4</v>
+        <v>100.9</v>
       </c>
       <c r="H10" t="n">
-        <v>100.3</v>
+        <v>98.8</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="M10" t="n">
         <v>101.5</v>
       </c>
       <c r="N10" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="O10" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="P10" t="n">
         <v>100.7</v>
       </c>
-      <c r="P10" t="n">
-        <v>101.9</v>
-      </c>
       <c r="Q10" t="n">
-        <v>101.2</v>
+        <v>100.6</v>
       </c>
       <c r="R10" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="S10" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="T10" t="n">
         <v>100</v>
       </c>
       <c r="U10" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="V10" t="n">
         <v>100</v>
       </c>
       <c r="W10" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AF10" t="n">
         <v>99.3</v>
       </c>
-      <c r="X10" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>100.1</v>
-      </c>
       <c r="AG10" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="AH10" t="n">
-        <v>99.40000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="AI10" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AJ10" t="n">
-        <v>100.5</v>
+        <v>99.5</v>
       </c>
       <c r="AK10" t="n">
         <v>100.2</v>
       </c>
       <c r="AL10" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AM10" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="AN10" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AP10" t="n">
-        <v>101.9</v>
+        <v>101.3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>102.9</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="H11" t="n">
         <v>101</v>
       </c>
-      <c r="G11" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M11" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>100</v>
+      </c>
+      <c r="S11" t="n">
+        <v>100</v>
+      </c>
+      <c r="T11" t="n">
+        <v>100</v>
+      </c>
+      <c r="U11" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="V11" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AB11" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="I11" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="K11" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>100</v>
-      </c>
-      <c r="S11" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="T11" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="U11" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="W11" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="X11" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>103.4</v>
-      </c>
       <c r="AC11" t="n">
-        <v>112</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>99.3</v>
+        <v>100.3</v>
       </c>
       <c r="AE11" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AG11" t="n">
         <v>100</v>
       </c>
       <c r="AH11" t="n">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
       <c r="AI11" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AJ11" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="n">
         <v>100.1</v>
       </c>
       <c r="AL11" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="AM11" t="n">
-        <v>99.2</v>
+        <v>100.3</v>
       </c>
       <c r="AN11" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="AO11" t="n">
         <v>100</v>
       </c>
       <c r="AP11" t="n">
-        <v>101.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AQ11" t="n">
-        <v>102.7</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="D12" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="G12" t="n">
-        <v>99.8</v>
+        <v>102.2</v>
       </c>
       <c r="H12" t="n">
-        <v>98.8</v>
+        <v>101.9</v>
       </c>
       <c r="I12" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="J12" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="K12" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="L12" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="M12" t="n">
-        <v>101.4</v>
+        <v>100.8</v>
       </c>
       <c r="N12" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>101.8</v>
+        <v>99.7</v>
       </c>
       <c r="P12" t="n">
-        <v>103</v>
+        <v>101.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="S12" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="T12" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="U12" t="n">
         <v>99.90000000000001</v>
@@ -2023,96 +2023,96 @@
         <v>100</v>
       </c>
       <c r="W12" t="n">
-        <v>99.09999999999999</v>
+        <v>102.2</v>
       </c>
       <c r="X12" t="n">
-        <v>99.8</v>
+        <v>102.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="AA12" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AB12" t="n">
-        <v>101.2</v>
+        <v>101.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>103.6</v>
+        <v>100.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>99.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="AG12" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AH12" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="AJ12" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="AK12" t="n">
         <v>100.1</v>
       </c>
       <c r="AL12" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AM12" t="n">
-        <v>99.59999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="AN12" t="n">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="AO12" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="AP12" t="n">
         <v>101.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>104.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>100.2</v>
+        <v>101</v>
       </c>
       <c r="G13" t="n">
-        <v>100.9</v>
+        <v>102.3</v>
       </c>
       <c r="H13" t="n">
-        <v>98.8</v>
+        <v>101.5</v>
       </c>
       <c r="I13" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="J13" t="n">
         <v>100</v>
@@ -2121,1672 +2121,1672 @@
         <v>99.90000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>100.1</v>
+        <v>101.1</v>
       </c>
       <c r="M13" t="n">
-        <v>101.5</v>
+        <v>102.2</v>
       </c>
       <c r="N13" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="O13" t="n">
-        <v>99.2</v>
+        <v>100.2</v>
       </c>
       <c r="P13" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="Q13" t="n">
         <v>100.7</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>100</v>
+      </c>
+      <c r="U13" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>100</v>
+      </c>
+      <c r="W13" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="Z13" t="n">
         <v>100.6</v>
       </c>
-      <c r="R13" t="n">
-        <v>100</v>
-      </c>
-      <c r="S13" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="T13" t="n">
-        <v>100</v>
-      </c>
-      <c r="U13" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>100</v>
-      </c>
-      <c r="W13" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>100</v>
-      </c>
       <c r="AA13" t="n">
         <v>99.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>99.5</v>
+        <v>105.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>97.7</v>
+        <v>107.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
       <c r="AE13" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="n">
-        <v>99.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AG13" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="AH13" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AI13" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AJ13" t="n">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
       <c r="AK13" t="n">
-        <v>100.2</v>
+        <v>100.6</v>
       </c>
       <c r="AL13" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AM13" t="n">
         <v>100.4</v>
       </c>
       <c r="AN13" t="n">
-        <v>100.7</v>
+        <v>100.3</v>
       </c>
       <c r="AO13" t="n">
         <v>100</v>
       </c>
       <c r="AP13" t="n">
-        <v>101.3</v>
+        <v>103.3</v>
       </c>
       <c r="AQ13" t="n">
-        <v>103.1</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>100.2</v>
+        <v>101.6</v>
       </c>
       <c r="G14" t="n">
-        <v>106.1</v>
+        <v>101</v>
       </c>
       <c r="H14" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="I14" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="L14" t="n">
-        <v>102.5</v>
+        <v>101</v>
       </c>
       <c r="M14" t="n">
-        <v>101</v>
+        <v>103.1</v>
       </c>
       <c r="N14" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="O14" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="P14" t="n">
-        <v>103.6</v>
+        <v>100.9</v>
       </c>
       <c r="Q14" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>100</v>
+      </c>
+      <c r="V14" t="n">
+        <v>100</v>
+      </c>
+      <c r="W14" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AK14" t="n">
         <v>100.6</v>
       </c>
-      <c r="R14" t="n">
-        <v>101</v>
-      </c>
-      <c r="S14" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>100</v>
-      </c>
-      <c r="W14" t="n">
-        <v>120.1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>107.3</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>106</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>100.9</v>
-      </c>
       <c r="AL14" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AM14" t="n">
-        <v>106.9</v>
+        <v>100.1</v>
       </c>
       <c r="AN14" t="n">
-        <v>101.4</v>
+        <v>100.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AP14" t="n">
-        <v>103.5</v>
+        <v>103.8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>91.09999999999999</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>100.7</v>
+        <v>99.5</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="G15" t="n">
-        <v>100.7</v>
+        <v>102.1</v>
       </c>
       <c r="H15" t="n">
-        <v>100.4</v>
+        <v>103.6</v>
       </c>
       <c r="I15" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="J15" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="K15" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="M15" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="N15" t="n">
-        <v>99.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>100.5</v>
+        <v>99.5</v>
       </c>
       <c r="P15" t="n">
-        <v>98.8</v>
+        <v>101.5</v>
       </c>
       <c r="Q15" t="n">
         <v>100.3</v>
       </c>
       <c r="R15" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>100</v>
+      </c>
+      <c r="W15" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AK15" t="n">
         <v>100.6</v>
       </c>
-      <c r="S15" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="T15" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="U15" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="W15" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="X15" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>100.1</v>
-      </c>
       <c r="AL15" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AM15" t="n">
-        <v>101.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AN15" t="n">
-        <v>101.1</v>
+        <v>100.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
       <c r="AP15" t="n">
-        <v>95.2</v>
+        <v>102.3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>93.7</v>
+        <v>105.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="C16" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
       <c r="D16" t="n">
         <v>100.1</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="G16" t="n">
-        <v>97.90000000000001</v>
+        <v>105.3</v>
       </c>
       <c r="H16" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="P16" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>100</v>
+      </c>
+      <c r="S16" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>100</v>
+      </c>
+      <c r="U16" t="n">
+        <v>100</v>
+      </c>
+      <c r="V16" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="W16" t="n">
         <v>96.90000000000001</v>
       </c>
-      <c r="I16" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="M16" t="n">
-        <v>101</v>
-      </c>
-      <c r="N16" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="P16" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="S16" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="T16" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="U16" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="V16" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="W16" t="n">
-        <v>91.7</v>
-      </c>
       <c r="X16" t="n">
-        <v>105.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="Y16" t="n">
-        <v>103</v>
+        <v>100.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>100.1</v>
+        <v>100.8</v>
       </c>
       <c r="AA16" t="n">
         <v>100.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.7</v>
+        <v>105.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>93.09999999999999</v>
+        <v>109.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>99.90000000000001</v>
+        <v>101.9</v>
       </c>
       <c r="AE16" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="AF16" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="AH16" t="n">
-        <v>99.90000000000001</v>
+        <v>102.3</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="AJ16" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="AK16" t="n">
-        <v>99.8</v>
+        <v>101.2</v>
       </c>
       <c r="AL16" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="AM16" t="n">
-        <v>98.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AN16" t="n">
-        <v>100.9</v>
+        <v>100</v>
       </c>
       <c r="AO16" t="n">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
       <c r="AP16" t="n">
-        <v>95.59999999999999</v>
+        <v>104.7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>91.3</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C17" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>101.6</v>
+        <v>99.2</v>
       </c>
       <c r="G17" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="H17" t="n">
         <v>101</v>
       </c>
-      <c r="H17" t="n">
-        <v>103.6</v>
-      </c>
       <c r="I17" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J17" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="K17" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="L17" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="M17" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="P17" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="S17" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="T17" t="n">
+        <v>100</v>
+      </c>
+      <c r="U17" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="V17" t="n">
+        <v>100</v>
+      </c>
+      <c r="W17" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AM17" t="n">
         <v>101</v>
       </c>
-      <c r="M17" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="R17" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="U17" t="n">
-        <v>100</v>
-      </c>
-      <c r="V17" t="n">
-        <v>100</v>
-      </c>
-      <c r="W17" t="n">
-        <v>106.4</v>
-      </c>
-      <c r="X17" t="n">
-        <v>103.9</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>105.3</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>108.2</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AN17" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AO17" t="n">
         <v>100.5</v>
       </c>
-      <c r="AE17" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="AP17" t="n">
-        <v>103.8</v>
+        <v>105.6</v>
       </c>
       <c r="AQ17" t="n">
-        <v>104.9</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="C18" t="n">
         <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>99.5</v>
+        <v>100.5</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="J18" t="n">
         <v>100.9</v>
       </c>
-      <c r="G18" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100.1</v>
-      </c>
       <c r="K18" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="L18" t="n">
-        <v>100.8</v>
+        <v>101.6</v>
       </c>
       <c r="M18" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="O18" t="n">
         <v>101</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>100</v>
+      </c>
+      <c r="V18" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="X18" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="O18" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>100</v>
-      </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AK18" t="n">
         <v>101.6</v>
       </c>
-      <c r="X18" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>104.9</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>100.6</v>
-      </c>
       <c r="AL18" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="AM18" t="n">
-        <v>99.59999999999999</v>
+        <v>101.3</v>
       </c>
       <c r="AN18" t="n">
-        <v>100.1</v>
+        <v>101.1</v>
       </c>
       <c r="AO18" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AP18" t="n">
-        <v>102.3</v>
+        <v>106.4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>105.9</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="C19" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>100.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>105.3</v>
+        <v>100.2</v>
       </c>
       <c r="H19" t="n">
-        <v>108.7</v>
+        <v>99.2</v>
       </c>
       <c r="I19" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="J19" t="n">
-        <v>100.5</v>
+        <v>99.7</v>
       </c>
       <c r="K19" t="n">
-        <v>100.1</v>
+        <v>99.5</v>
       </c>
       <c r="L19" t="n">
-        <v>101.6</v>
+        <v>100.3</v>
       </c>
       <c r="M19" t="n">
-        <v>103.9</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="O19" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>104.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.1</v>
+        <v>101.6</v>
       </c>
       <c r="R19" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="S19" t="n">
-        <v>101.1</v>
+        <v>100.2</v>
       </c>
       <c r="T19" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="U19" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="V19" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="W19" t="n">
-        <v>96.90000000000001</v>
+        <v>105.2</v>
       </c>
       <c r="X19" t="n">
-        <v>98.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>100.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="Z19" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AK19" t="n">
         <v>100.8</v>
       </c>
-      <c r="AA19" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>105.7</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>109.8</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>101.2</v>
-      </c>
       <c r="AL19" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AM19" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="AP19" t="n">
-        <v>104.7</v>
+        <v>99.3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>104.4</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="C20" t="n">
-        <v>99.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="D20" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>102.1</v>
+        <v>100.8</v>
       </c>
       <c r="H20" t="n">
-        <v>101</v>
+        <v>101.8</v>
       </c>
       <c r="I20" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="J20" t="n">
         <v>100.1</v>
       </c>
       <c r="K20" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="L20" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="M20" t="n">
-        <v>102.2</v>
+        <v>99.8</v>
       </c>
       <c r="N20" t="n">
-        <v>99.7</v>
+        <v>105</v>
       </c>
       <c r="O20" t="n">
-        <v>100.9</v>
+        <v>100.3</v>
       </c>
       <c r="P20" t="n">
-        <v>102.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.4</v>
+        <v>100.2</v>
       </c>
       <c r="R20" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="S20" t="n">
-        <v>100.7</v>
+        <v>100.1</v>
       </c>
       <c r="T20" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="U20" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="V20" t="n">
         <v>100</v>
       </c>
       <c r="W20" t="n">
-        <v>102.8</v>
+        <v>106.6</v>
       </c>
       <c r="X20" t="n">
-        <v>96.7</v>
+        <v>100.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="Z20" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="AA20" t="n">
         <v>100.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.09999999999999</v>
+        <v>102.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>100.4</v>
+        <v>105.9</v>
       </c>
       <c r="AD20" t="n">
         <v>100.6</v>
       </c>
       <c r="AE20" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="AF20" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AG20" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AH20" t="n">
-        <v>100.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AI20" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AJ20" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AK20" t="n">
-        <v>101.4</v>
+        <v>100.5</v>
       </c>
       <c r="AL20" t="n">
         <v>100.2</v>
       </c>
       <c r="AM20" t="n">
-        <v>101</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AN20" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="AP20" t="n">
-        <v>105.6</v>
+        <v>99.8</v>
       </c>
       <c r="AQ20" t="n">
-        <v>102.2</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="H21" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="I21" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="J21" t="n">
-        <v>100.9</v>
+        <v>99.8</v>
       </c>
       <c r="K21" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="L21" t="n">
-        <v>101.6</v>
+        <v>100.7</v>
       </c>
       <c r="M21" t="n">
-        <v>104.5</v>
+        <v>100.2</v>
       </c>
       <c r="N21" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>100</v>
+      </c>
+      <c r="P21" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="R21" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>100</v>
+      </c>
+      <c r="U21" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>100</v>
+      </c>
+      <c r="W21" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="Y21" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Z21" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AB21" t="n">
         <v>101</v>
       </c>
-      <c r="P21" t="n">
-        <v>104.4</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="AC21" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AP21" t="n">
         <v>102.2</v>
       </c>
-      <c r="R21" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="U21" t="n">
-        <v>100</v>
-      </c>
-      <c r="V21" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="W21" t="n">
-        <v>110.6</v>
-      </c>
-      <c r="X21" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>104.4</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>106.4</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>107.4</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.1</v>
+        <v>100.0541</v>
       </c>
       <c r="C22" t="n">
-        <v>99.59999999999999</v>
+        <v>99.93380000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>99.7</v>
+        <v>100.0777</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>99.09999999999999</v>
+        <v>99.93689999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>100.2</v>
+        <v>101.9524</v>
       </c>
       <c r="H22" t="n">
-        <v>99.2</v>
+        <v>98.6956</v>
       </c>
       <c r="I22" t="n">
-        <v>99.7</v>
+        <v>99.7439</v>
       </c>
       <c r="J22" t="n">
-        <v>99.7</v>
+        <v>99.8908</v>
       </c>
       <c r="K22" t="n">
-        <v>99.5</v>
+        <v>100.4759</v>
       </c>
       <c r="L22" t="n">
-        <v>100.3</v>
+        <v>101.2</v>
       </c>
       <c r="M22" t="n">
-        <v>99.59999999999999</v>
+        <v>101.8966</v>
       </c>
       <c r="N22" t="n">
-        <v>99.7</v>
+        <v>95.4637</v>
       </c>
       <c r="O22" t="n">
-        <v>99.59999999999999</v>
+        <v>100.2449</v>
       </c>
       <c r="P22" t="n">
-        <v>99.90000000000001</v>
+        <v>102.9197</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.6</v>
+        <v>101.0352</v>
       </c>
       <c r="R22" t="n">
-        <v>99.90000000000001</v>
+        <v>100.4056</v>
       </c>
       <c r="S22" t="n">
-        <v>100.2</v>
+        <v>100.1431</v>
       </c>
       <c r="T22" t="n">
-        <v>100.3</v>
+        <v>100.0286</v>
       </c>
       <c r="U22" t="n">
-        <v>100.2</v>
+        <v>100.1638</v>
       </c>
       <c r="V22" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="W22" t="n">
-        <v>105.2</v>
+        <v>112.0596</v>
       </c>
       <c r="X22" t="n">
-        <v>99.90000000000001</v>
+        <v>102.5219</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.59999999999999</v>
+        <v>100.4031</v>
       </c>
       <c r="Z22" t="n">
-        <v>100.9</v>
+        <v>100.4766</v>
       </c>
       <c r="AA22" t="n">
-        <v>99.7</v>
+        <v>100.0415</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.1</v>
+        <v>103.3254</v>
       </c>
       <c r="AC22" t="n">
-        <v>102.5</v>
+        <v>99.08150000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>100</v>
+        <v>100.4163</v>
       </c>
       <c r="AE22" t="n">
-        <v>99.8</v>
+        <v>100.1923</v>
       </c>
       <c r="AF22" t="n">
-        <v>100.2</v>
+        <v>100.0126</v>
       </c>
       <c r="AG22" t="n">
-        <v>100.4</v>
+        <v>100.2081</v>
       </c>
       <c r="AH22" t="n">
-        <v>100</v>
+        <v>100.0579</v>
       </c>
       <c r="AI22" t="n">
-        <v>100.1</v>
+        <v>100.0495</v>
       </c>
       <c r="AJ22" t="n">
-        <v>99.7</v>
+        <v>100.2982</v>
       </c>
       <c r="AK22" t="n">
-        <v>100.8</v>
+        <v>100.7183</v>
       </c>
       <c r="AL22" t="n">
-        <v>100</v>
+        <v>100.1225</v>
       </c>
       <c r="AM22" t="n">
-        <v>100</v>
+        <v>102.8835</v>
       </c>
       <c r="AN22" t="n">
-        <v>100.5</v>
+        <v>100.3789</v>
       </c>
       <c r="AO22" t="n">
-        <v>100</v>
+        <v>100.2098</v>
       </c>
       <c r="AP22" t="n">
-        <v>99.3</v>
+        <v>101.833</v>
       </c>
       <c r="AQ22" t="n">
-        <v>105.4</v>
+        <v>91.28230000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="C23" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="G23" t="n">
-        <v>100.8</v>
+        <v>106.1</v>
       </c>
       <c r="H23" t="n">
-        <v>101.8</v>
+        <v>103.5</v>
       </c>
       <c r="I23" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="J23" t="n">
         <v>100.1</v>
       </c>
       <c r="K23" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>101</v>
+      </c>
+      <c r="N23" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="O23" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="P23" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>101</v>
+      </c>
+      <c r="S23" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="U23" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>100</v>
+      </c>
+      <c r="W23" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="Y23" t="n">
         <v>100.5</v>
       </c>
-      <c r="L23" t="n">
+      <c r="Z23" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>106</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AH23" t="n">
         <v>100.5</v>
       </c>
-      <c r="M23" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="N23" t="n">
-        <v>105</v>
-      </c>
-      <c r="O23" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="T23" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="V23" t="n">
-        <v>100</v>
-      </c>
-      <c r="W23" t="n">
-        <v>106.6</v>
-      </c>
-      <c r="X23" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>105.9</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>99.40000000000001</v>
-      </c>
       <c r="AI23" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="AJ23" t="n">
-        <v>100.2</v>
+        <v>99.7</v>
       </c>
       <c r="AK23" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="AL23" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AM23" t="n">
-        <v>98.90000000000001</v>
+        <v>106.9</v>
       </c>
       <c r="AN23" t="n">
-        <v>100.4</v>
+        <v>101.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AP23" t="n">
-        <v>99.8</v>
+        <v>103.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>103.6</v>
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>100.1</v>
+        <v>100.7</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>101.4</v>
       </c>
       <c r="G24" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>100</v>
+      </c>
+      <c r="M24" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="N24" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="T24" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="U24" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="X24" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="Y24" t="n">
         <v>101.9</v>
       </c>
-      <c r="H24" t="n">
-        <v>101</v>
-      </c>
-      <c r="I24" t="n">
-        <v>100</v>
-      </c>
-      <c r="J24" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="M24" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="O24" t="n">
-        <v>100</v>
-      </c>
-      <c r="P24" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="R24" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="T24" t="n">
-        <v>100</v>
-      </c>
-      <c r="U24" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="V24" t="n">
-        <v>100</v>
-      </c>
-      <c r="W24" t="n">
+      <c r="Z24" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="AC24" t="n">
         <v>106.5</v>
       </c>
-      <c r="X24" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>98.8</v>
-      </c>
       <c r="AD24" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="AE24" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="AF24" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="AG24" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AH24" t="n">
-        <v>99.7</v>
+        <v>101.3</v>
       </c>
       <c r="AI24" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AK24" t="n">
-        <v>100.6</v>
+        <v>100.1</v>
       </c>
       <c r="AL24" t="n">
         <v>100.3</v>
       </c>
       <c r="AM24" t="n">
-        <v>99.90000000000001</v>
+        <v>101.8</v>
       </c>
       <c r="AN24" t="n">
-        <v>100.6</v>
+        <v>101.1</v>
       </c>
       <c r="AO24" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="AP24" t="n">
-        <v>102.2</v>
+        <v>95.2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>98.5</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.0541</v>
+        <v>100.1</v>
       </c>
       <c r="C25" t="n">
-        <v>99.93380000000001</v>
+        <v>100.8</v>
       </c>
       <c r="D25" t="n">
-        <v>100.0777</v>
+        <v>100.1</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>99.93689999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>101.9524</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>98.6956</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>99.7439</v>
+        <v>100.1</v>
       </c>
       <c r="J25" t="n">
-        <v>99.8908</v>
+        <v>100.1</v>
       </c>
       <c r="K25" t="n">
-        <v>100.4759</v>
+        <v>100.3</v>
       </c>
       <c r="L25" t="n">
-        <v>101.2</v>
+        <v>98.8</v>
       </c>
       <c r="M25" t="n">
-        <v>101.8966</v>
+        <v>101</v>
       </c>
       <c r="N25" t="n">
-        <v>95.4637</v>
+        <v>100.2</v>
       </c>
       <c r="O25" t="n">
-        <v>100.2449</v>
+        <v>99.8</v>
       </c>
       <c r="P25" t="n">
-        <v>102.9197</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>101.0352</v>
+        <v>100.5</v>
       </c>
       <c r="R25" t="n">
-        <v>100.4056</v>
+        <v>99.7</v>
       </c>
       <c r="S25" t="n">
-        <v>100.1431</v>
+        <v>99.7</v>
       </c>
       <c r="T25" t="n">
-        <v>100.0286</v>
+        <v>100.2</v>
       </c>
       <c r="U25" t="n">
-        <v>100.1638</v>
+        <v>99.8</v>
       </c>
       <c r="V25" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="W25" t="n">
-        <v>112.0596</v>
+        <v>91.7</v>
       </c>
       <c r="X25" t="n">
-        <v>102.5219</v>
+        <v>105.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>100.4031</v>
+        <v>103</v>
       </c>
       <c r="Z25" t="n">
-        <v>100.4766</v>
+        <v>100.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>100.0415</v>
+        <v>100.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.3254</v>
+        <v>93.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>99.08150000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>100.4163</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AE25" t="n">
-        <v>100.1923</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AF25" t="n">
-        <v>100.0126</v>
+        <v>99.7</v>
       </c>
       <c r="AG25" t="n">
-        <v>100.2081</v>
+        <v>100.1</v>
       </c>
       <c r="AH25" t="n">
-        <v>100.0579</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AI25" t="n">
-        <v>100.0495</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="n">
-        <v>100.2982</v>
+        <v>100.2</v>
       </c>
       <c r="AK25" t="n">
-        <v>100.7183</v>
+        <v>99.8</v>
       </c>
       <c r="AL25" t="n">
-        <v>100.1225</v>
+        <v>99.7</v>
       </c>
       <c r="AM25" t="n">
-        <v>102.8835</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AN25" t="n">
-        <v>100.3789</v>
+        <v>100.9</v>
       </c>
       <c r="AO25" t="n">
-        <v>100.2098</v>
+        <v>100.7</v>
       </c>
       <c r="AP25" t="n">
-        <v>101.833</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AQ25" t="n">
-        <v>91.28230000000001</v>
+        <v>91.3</v>
       </c>
     </row>
   </sheetData>
